--- a/Brothers_AMS/TemplateFiles/ExportReports/HRFormatAttendance_TimeInOut.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/HRFormatAttendance_TimeInOut.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\AMS\Brothers_AMS\Brothers_AMS\TemplateFiles\ExportReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\ExportReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,6 +42,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,17 +109,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,15 +403,15 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -417,16 +420,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
